--- a/OrangeHRMApplication/bin/com/Excel_OrangeHRM/OrangeHRMExcel.xlsx
+++ b/OrangeHRMApplication/bin/com/Excel_OrangeHRM/OrangeHRMExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="10">
   <si>
     <t>User Name</t>
   </si>

--- a/OrangeHRMApplication/bin/com/Excel_OrangeHRM/OrangeHRMExcel.xlsx
+++ b/OrangeHRMApplication/bin/com/Excel_OrangeHRM/OrangeHRMExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="10">
   <si>
     <t>User Name</t>
   </si>
